--- a/BalanceSheet/K_bal.xlsx
+++ b/BalanceSheet/K_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3000000.0</v>
+        <v>1284000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>1263000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-34000000.0</v>
+        <v>1230000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1000000.0</v>
+        <v>1189000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>1226000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1200000000.0</v>
@@ -1766,19 +1766,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>-117000000.0</v>
+        <v>2471000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3000000.0</v>
+        <v>2449000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>61000000.0</v>
+        <v>2393000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>44000000.0</v>
+        <v>2329000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-9000000.0</v>
+        <v>2387000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2338000000.0</v>
@@ -2828,19 +2828,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>12000000.0</v>
+        <v>308000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>34000000.0</v>
+        <v>368000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>15000000.0</v>
+        <v>374000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>8000000.0</v>
+        <v>370000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>253000000.0</v>
+        <v>365000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>589000000.0</v>
